--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HB0408\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ECDEE12A-4D5C-4E26-B5F4-B7EAD3A04E93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC86D3-3CE2-416E-89FF-CFDC2A63F0C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A8B00968-86EA-434F-B8F4-0C097E406D92}"/>
   </bookViews>
@@ -390,13 +390,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2C7CA9-3255-47B2-AB28-344D1E4DADF3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
